--- a/MCL.xlsx
+++ b/MCL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anvesh Pudi\Downloads\CIS_Benchmark\cis-benchmark-pdf-parser\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB733549-9099-4D5A-913A-F4A7AEF1917D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EEC9C43-B6CB-483D-B197-2F5A6F17233A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{E9A4851C-47D7-4E08-B080-95EC574A7D2C}"/>
   </bookViews>
@@ -42,9 +42,6 @@
     <t>Statements_index</t>
   </si>
   <si>
-    <t xml:space="preserve">Standard statement </t>
-  </si>
-  <si>
     <t>Security patch management</t>
   </si>
   <si>
@@ -106,6 +103,9 @@
   </si>
   <si>
     <t>Control domain</t>
+  </si>
+  <si>
+    <t>Standard statement</t>
   </si>
 </sst>
 </file>
@@ -483,8 +483,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B660BEC0-F610-4D56-AC24-5951D0F00C97}">
   <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -503,220 +503,220 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>4</v>
-      </c>
       <c r="C2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/MCL.xlsx
+++ b/MCL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anvesh Pudi\Downloads\CIS_Benchmark\cis-benchmark-pdf-parser\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EEC9C43-B6CB-483D-B197-2F5A6F17233A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF1C6002-F77A-4420-8EE1-C4D397257AA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{E9A4851C-47D7-4E08-B080-95EC574A7D2C}"/>
   </bookViews>
@@ -484,7 +484,7 @@
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
